--- a/直播预告数据/杭州.xlsx
+++ b/直播预告数据/杭州.xlsx
@@ -76,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -111,6 +111,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,20 +146,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,42 +168,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,6 +199,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -233,7 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +233,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,30 +263,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,13 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,37 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,55 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,12 +437,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,18 +444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,32 +498,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -554,6 +528,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -574,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="14.25"/>

--- a/直播预告数据/杭州.xlsx
+++ b/直播预告数据/杭州.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="15120" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>直播间ID</t>
   </si>
@@ -22,52 +22,13 @@
     <t>爬取时间</t>
   </si>
   <si>
-    <t>直播间标题</t>
-  </si>
-  <si>
     <t>主播姓名</t>
-  </si>
-  <si>
-    <t>主播简介</t>
   </si>
   <si>
     <t>主播标签</t>
   </si>
   <si>
-    <t>直播房源户型简介</t>
-  </si>
-  <si>
-    <t>主播照片</t>
-  </si>
-  <si>
-    <t>直播详情地址</t>
-  </si>
-  <si>
     <t>直播开始时间</t>
-  </si>
-  <si>
-    <t>直播结束时间</t>
-  </si>
-  <si>
-    <t>直播间创建时间</t>
-  </si>
-  <si>
-    <t>直播间背景图</t>
-  </si>
-  <si>
-    <t>直播房源标题</t>
-  </si>
-  <si>
-    <t>直播房源地点</t>
-  </si>
-  <si>
-    <t>直播房源户型</t>
-  </si>
-  <si>
-    <t>直播房源面积(㎡)</t>
-  </si>
-  <si>
-    <t>直播房源总价格(万)</t>
   </si>
 </sst>
 </file>
@@ -75,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -111,47 +72,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -168,26 +115,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +138,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -215,6 +169,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -233,22 +194,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,15 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,6 +444,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +490,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,17 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -574,133 +535,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,36 +1004,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="A2" sqref="$A2:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.64166666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.6083333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.64166666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.9916666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.475" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.2833333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.175" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.0416666666667" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.5333333333333" style="3" customWidth="1"/>
-    <col min="19" max="32" width="9.64166666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.6083333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="19" width="9.64166666666667" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1088,45 +1036,6 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
